--- a/notebooks/SMAD3/input/SMAD3_LDS3_individuals.xlsx
+++ b/notebooks/SMAD3/input/SMAD3_LDS3_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/SMAD3/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/SMAD3/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C13972-F9B4-1B43-994D-1EEDF3C0076A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372C9B82-5F31-EB45-B9F2-9EB48BD31BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2720" yWindow="2380" windowWidth="31300" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2720" yWindow="500" windowWidth="35680" windowHeight="19620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2377" uniqueCount="278">
   <si>
     <t>PMID</t>
   </si>
@@ -591,13 +591,289 @@
   </si>
   <si>
     <t>HP:0000938</t>
+  </si>
+  <si>
+    <t>PMID:31569402</t>
+  </si>
+  <si>
+    <t>Genotypic Categorization of Loeys-Dietz Syndrome Based on 24 Novel Families and Literature Data</t>
+  </si>
+  <si>
+    <t>Family 20 Patient I</t>
+  </si>
+  <si>
+    <t>Family 20 Patient II</t>
+  </si>
+  <si>
+    <t>Family 21 Patient I</t>
+  </si>
+  <si>
+    <t>Family 21 Patient II</t>
+  </si>
+  <si>
+    <t>Family 21 Patient III</t>
+  </si>
+  <si>
+    <t>Family 21 Patient IV</t>
+  </si>
+  <si>
+    <t>Family 22 Patient I</t>
+  </si>
+  <si>
+    <t>Family 23 Patient I</t>
+  </si>
+  <si>
+    <t>Family 23 Patient II</t>
+  </si>
+  <si>
+    <t>P31Y</t>
+  </si>
+  <si>
+    <t>P13Y</t>
+  </si>
+  <si>
+    <t>P45Y</t>
+  </si>
+  <si>
+    <t>P43Y</t>
+  </si>
+  <si>
+    <t>P71Y</t>
+  </si>
+  <si>
+    <t>P41Y</t>
+  </si>
+  <si>
+    <t>P23Y</t>
+  </si>
+  <si>
+    <t>P51Y</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>c.1247C&gt;T</t>
+  </si>
+  <si>
+    <t>c.1009+1G&gt;A</t>
+  </si>
+  <si>
+    <t>c.803G&gt;A</t>
+  </si>
+  <si>
+    <t>c.862_871+8del</t>
+  </si>
+  <si>
+    <t>NP_005893.1:p.(Ser416Phe)</t>
+  </si>
+  <si>
+    <t>NP_005893.1:p.(Arg268His)</t>
+  </si>
+  <si>
+    <t>Dolichocephaly</t>
+  </si>
+  <si>
+    <t>HP:0000268</t>
+  </si>
+  <si>
+    <t>Epicanthus</t>
+  </si>
+  <si>
+    <t>HP:0000286</t>
+  </si>
+  <si>
+    <t>Frontal bossing</t>
+  </si>
+  <si>
+    <t>HP:0002007</t>
+  </si>
+  <si>
+    <t>Malar flattening</t>
+  </si>
+  <si>
+    <t>HP:0000272</t>
+  </si>
+  <si>
+    <t>Prominent nose</t>
+  </si>
+  <si>
+    <t>HP:0000448</t>
+  </si>
+  <si>
+    <t>Low-set ears</t>
+  </si>
+  <si>
+    <t>HP:0000369</t>
+  </si>
+  <si>
+    <t>Micrognathia</t>
+  </si>
+  <si>
+    <t>HP:0000347</t>
+  </si>
+  <si>
+    <t>Cleft palate</t>
+  </si>
+  <si>
+    <t>HP:0000175</t>
+  </si>
+  <si>
+    <t>Hyperextensible skin</t>
+  </si>
+  <si>
+    <t>HP:0000974</t>
+  </si>
+  <si>
+    <t>Atrophic scars</t>
+  </si>
+  <si>
+    <t>HP:0001075</t>
+  </si>
+  <si>
+    <t>Bruising susceptibility</t>
+  </si>
+  <si>
+    <t>HP:0000978</t>
+  </si>
+  <si>
+    <t>Milia</t>
+  </si>
+  <si>
+    <t>HP:0001056</t>
+  </si>
+  <si>
+    <t>Dermal translucency</t>
+  </si>
+  <si>
+    <t>HP:0010648</t>
+  </si>
+  <si>
+    <t>Hiatus hernia</t>
+  </si>
+  <si>
+    <t>HP:0002036</t>
+  </si>
+  <si>
+    <t>(carinatum)</t>
+  </si>
+  <si>
+    <t>(excavatum)</t>
+  </si>
+  <si>
+    <t>Pectus excavatum</t>
+  </si>
+  <si>
+    <t>HP:0000767</t>
+  </si>
+  <si>
+    <t>Pectus carinatum</t>
+  </si>
+  <si>
+    <t>HP:0000768</t>
+  </si>
+  <si>
+    <t>Genu valgum</t>
+  </si>
+  <si>
+    <t>HP:0002857</t>
+  </si>
+  <si>
+    <t>Talipes equinovalgus</t>
+  </si>
+  <si>
+    <t>HP:0001772</t>
+  </si>
+  <si>
+    <t>Reduced bone mineral density</t>
+  </si>
+  <si>
+    <t>HP:0004349</t>
+  </si>
+  <si>
+    <t>Recurrent joint dislocation</t>
+  </si>
+  <si>
+    <t>HP:0031869</t>
+  </si>
+  <si>
+    <t>Joint contracture</t>
+  </si>
+  <si>
+    <t>HP:0034392</t>
+  </si>
+  <si>
+    <t>Cervical spine instability</t>
+  </si>
+  <si>
+    <t>HP:0010646</t>
+  </si>
+  <si>
+    <t>Mitral regurgitation</t>
+  </si>
+  <si>
+    <t>HP:0001653</t>
+  </si>
+  <si>
+    <t>Patent ductus arteriosus</t>
+  </si>
+  <si>
+    <t>HP:0001643</t>
+  </si>
+  <si>
+    <t>Dural ectasia</t>
+  </si>
+  <si>
+    <t>HP:0100775</t>
+  </si>
+  <si>
+    <t>Myopia</t>
+  </si>
+  <si>
+    <t>HP:0000545</t>
+  </si>
+  <si>
+    <t>Keratoconus</t>
+  </si>
+  <si>
+    <t>HP:0000563</t>
+  </si>
+  <si>
+    <t>Food allergy</t>
+  </si>
+  <si>
+    <t>HP:0500093</t>
+  </si>
+  <si>
+    <t>Hypospadias</t>
+  </si>
+  <si>
+    <t>HP:0000047</t>
+  </si>
+  <si>
+    <t>Strabismus</t>
+  </si>
+  <si>
+    <t>HP:0000486</t>
+  </si>
+  <si>
+    <t>Coronary artery dissection</t>
+  </si>
+  <si>
+    <t>HP:0006702</t>
+  </si>
+  <si>
+    <t>Camptodactyly</t>
+  </si>
+  <si>
+    <t>HP:0012385</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -626,6 +902,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -663,7 +950,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -675,7 +962,14 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -980,19 +1274,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU51"/>
+  <dimension ref="A1:CA60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:W1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AX1" workbookViewId="0">
+      <selection activeCell="BO1" sqref="BO1:BO1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="87" bestFit="1" customWidth="1"/>
     <col min="5" max="22" width="8.83203125" customWidth="1"/>
     <col min="24" max="24" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:79" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1068,74 +1363,170 @@
       <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="AG1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="AL1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="AO1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="AS1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AV1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="BA1" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="BB1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="BE1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF1" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="BG1" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="BH1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BI1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="BJ1" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="BK1" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="BL1" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="BM1" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="BN1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BO1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AK1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP1" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AQ1" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AR1" s="4" t="s">
+      <c r="BP1" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="BQ1" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="BR1" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="BS1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="BT1" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="BU1" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="BV1" s="4" t="s">
         <v>165</v>
       </c>
+      <c r="BW1" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="BX1" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="BY1" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="BZ1" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="CA1" s="4" t="s">
+        <v>270</v>
+      </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -1212,73 +1603,169 @@
         <v>56</v>
       </c>
       <c r="Z2" t="s">
+        <v>257</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>245</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>247</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>249</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>253</v>
+      </c>
+      <c r="AG2" t="s">
         <v>51</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AH2" t="s">
+        <v>255</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>277</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>58</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AK2" t="s">
+        <v>275</v>
+      </c>
+      <c r="AL2" t="s">
         <v>59</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AM2" t="s">
         <v>60</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AN2" t="s">
+        <v>259</v>
+      </c>
+      <c r="AO2" t="s">
         <v>57</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AP2" t="s">
         <v>162</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AQ2" t="s">
         <v>61</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AR2" t="s">
+        <v>261</v>
+      </c>
+      <c r="AS2" t="s">
         <v>104</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AT2" t="s">
         <v>101</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AU2" t="s">
         <v>62</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AV2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>229</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>231</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>233</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>235</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>237</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>64</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>68</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>239</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>227</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>215</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>217</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>219</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>221</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>223</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BO2" t="s">
         <v>63</v>
       </c>
-      <c r="AK2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AR2" t="s">
+      <c r="BP2" t="s">
+        <v>225</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>213</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>263</v>
+      </c>
+      <c r="BS2" t="s">
         <v>111</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="BT2" t="s">
         <v>168</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="BU2" t="s">
         <v>164</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="BV2" t="s">
         <v>166</v>
       </c>
+      <c r="BW2" t="s">
+        <v>265</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>267</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>273</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>269</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>271</v>
+      </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -1336,41 +1823,44 @@
       <c r="Y3" t="s">
         <v>48</v>
       </c>
-      <c r="Z3" t="s">
-        <v>48</v>
-      </c>
       <c r="AB3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>102</v>
+        <v>241</v>
       </c>
       <c r="AG3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AP3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL3" t="s">
         <v>48</v>
       </c>
       <c r="AQ3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AR3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>48</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>48</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>48</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>48</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>48</v>
+      </c>
+      <c r="BS3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>69</v>
       </c>
@@ -1425,41 +1915,44 @@
       <c r="Y4" t="s">
         <v>105</v>
       </c>
-      <c r="Z4" t="s">
-        <v>48</v>
-      </c>
       <c r="AB4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF4" t="s">
         <v>102</v>
       </c>
       <c r="AG4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AP4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL4" t="s">
         <v>48</v>
       </c>
       <c r="AQ4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AR4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>48</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>48</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>48</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>48</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>48</v>
+      </c>
+      <c r="BS4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -1514,41 +2007,44 @@
       <c r="Y5" t="s">
         <v>105</v>
       </c>
-      <c r="Z5" t="s">
-        <v>48</v>
-      </c>
       <c r="AB5" t="s">
         <v>105</v>
       </c>
-      <c r="AF5" t="s">
-        <v>105</v>
-      </c>
       <c r="AG5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>48</v>
+        <v>48</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>105</v>
       </c>
       <c r="AQ5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AR5" t="s">
+        <v>105</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>48</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>48</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>48</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>48</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>48</v>
+      </c>
+      <c r="BS5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -1603,41 +2099,44 @@
       <c r="Y6" t="s">
         <v>48</v>
       </c>
-      <c r="Z6" t="s">
-        <v>48</v>
-      </c>
       <c r="AB6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AG6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AP6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL6" t="s">
         <v>48</v>
       </c>
       <c r="AQ6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AR6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>48</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>48</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>48</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>48</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>48</v>
+      </c>
+      <c r="BS6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:79" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>69</v>
       </c>
@@ -1692,41 +2191,44 @@
       <c r="Y7" t="s">
         <v>105</v>
       </c>
-      <c r="Z7" t="s">
-        <v>102</v>
-      </c>
       <c r="AB7" t="s">
-        <v>105</v>
-      </c>
-      <c r="AF7" t="s">
         <v>102</v>
       </c>
       <c r="AG7" t="s">
         <v>102</v>
       </c>
-      <c r="AH7" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>102</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>105</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>105</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>102</v>
+      <c r="AL7" t="s">
+        <v>105</v>
       </c>
       <c r="AQ7" t="s">
         <v>102</v>
       </c>
-      <c r="AR7" t="s">
+      <c r="AS7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>102</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>105</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>105</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>102</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>69</v>
       </c>
@@ -1781,41 +2283,46 @@
       <c r="Y8" t="s">
         <v>105</v>
       </c>
-      <c r="Z8" s="5" t="s">
-        <v>102</v>
-      </c>
       <c r="AB8" t="s">
-        <v>105</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>105</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>102</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>102</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>102</v>
-      </c>
-      <c r="AP8" t="s">
+        <v>240</v>
+      </c>
+      <c r="AG8" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AL8" t="s">
         <v>105</v>
       </c>
       <c r="AQ8" t="s">
         <v>105</v>
       </c>
-      <c r="AR8" t="s">
+      <c r="AS8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>105</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>105</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>69</v>
       </c>
@@ -1870,41 +2377,44 @@
       <c r="Y9" t="s">
         <v>48</v>
       </c>
-      <c r="Z9" t="s">
-        <v>48</v>
-      </c>
       <c r="AB9" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="AG9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>48</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>48</v>
-      </c>
-      <c r="AP9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL9" t="s">
         <v>48</v>
       </c>
       <c r="AQ9" t="s">
         <v>48</v>
       </c>
-      <c r="AR9" t="s">
+      <c r="AS9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>48</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>48</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>48</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>48</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>48</v>
+      </c>
+      <c r="BS9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -1959,41 +2469,41 @@
       <c r="Y10" t="s">
         <v>105</v>
       </c>
-      <c r="Z10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>105</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>105</v>
+      <c r="AA10" t="s">
+        <v>48</v>
       </c>
       <c r="AG10" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>102</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="AO10" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="AP10" t="s">
         <v>102</v>
       </c>
       <c r="AQ10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AR10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>48</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>48</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>48</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>102</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>102</v>
+      </c>
+      <c r="BQ10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -2048,41 +2558,41 @@
       <c r="Y11" t="s">
         <v>102</v>
       </c>
-      <c r="Z11" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>105</v>
-      </c>
-      <c r="AF11" t="s">
+      <c r="AA11" t="s">
         <v>102</v>
       </c>
       <c r="AG11" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>105</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AO11" t="s">
         <v>102</v>
       </c>
       <c r="AP11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AQ11" t="s">
-        <v>105</v>
-      </c>
-      <c r="AR11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>105</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>105</v>
+      </c>
+      <c r="BQ11" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -2137,41 +2647,41 @@
       <c r="Y12" t="s">
         <v>102</v>
       </c>
-      <c r="Z12" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>105</v>
-      </c>
-      <c r="AF12" t="s">
+      <c r="AA12" s="5" t="s">
         <v>105</v>
       </c>
       <c r="AG12" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>105</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AO12" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AP12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AQ12" t="s">
-        <v>105</v>
-      </c>
-      <c r="AR12" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>105</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>105</v>
+      </c>
+      <c r="BQ12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>69</v>
       </c>
@@ -2226,41 +2736,41 @@
       <c r="Y13" t="s">
         <v>48</v>
       </c>
-      <c r="Z13" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>105</v>
+      <c r="AA13" t="s">
+        <v>48</v>
       </c>
       <c r="AG13" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN13" t="s">
         <v>48</v>
       </c>
       <c r="AO13" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="AP13" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="AQ13" t="s">
-        <v>48</v>
-      </c>
-      <c r="AR13" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>48</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>48</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>48</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>48</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>48</v>
+      </c>
+      <c r="BQ13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>69</v>
       </c>
@@ -2315,41 +2825,41 @@
       <c r="Y14" t="s">
         <v>102</v>
       </c>
-      <c r="Z14" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>105</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>105</v>
+      <c r="AA14" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="AG14" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>105</v>
-      </c>
-      <c r="AN14" t="s">
         <v>105</v>
       </c>
       <c r="AO14" t="s">
         <v>105</v>
       </c>
       <c r="AP14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AQ14" t="s">
-        <v>105</v>
-      </c>
-      <c r="AR14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>105</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>105</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>105</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>105</v>
+      </c>
+      <c r="BQ14" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>69</v>
       </c>
@@ -2404,41 +2914,41 @@
       <c r="Y15" t="s">
         <v>102</v>
       </c>
-      <c r="Z15" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF15" t="s">
+      <c r="AA15" s="5" t="s">
         <v>102</v>
       </c>
       <c r="AG15" t="s">
         <v>102</v>
       </c>
-      <c r="AH15" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>102</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>105</v>
-      </c>
       <c r="AO15" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AP15" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AQ15" t="s">
-        <v>105</v>
-      </c>
-      <c r="AR15" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>105</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>105</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>105</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>102</v>
+      </c>
+      <c r="BQ15" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>69</v>
       </c>
@@ -2493,41 +3003,41 @@
       <c r="Y16" t="s">
         <v>102</v>
       </c>
-      <c r="Z16" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF16" t="s">
+      <c r="AA16" s="5" t="s">
         <v>102</v>
       </c>
       <c r="AG16" t="s">
         <v>102</v>
       </c>
-      <c r="AH16" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>102</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>105</v>
-      </c>
       <c r="AO16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AP16" t="s">
         <v>102</v>
       </c>
       <c r="AQ16" t="s">
-        <v>105</v>
-      </c>
-      <c r="AR16" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>105</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>105</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>102</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>102</v>
+      </c>
+      <c r="BQ16" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>69</v>
       </c>
@@ -2582,41 +3092,41 @@
       <c r="Y17" t="s">
         <v>102</v>
       </c>
-      <c r="Z17" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF17" t="s">
+      <c r="AA17" s="5" t="s">
         <v>102</v>
       </c>
       <c r="AG17" t="s">
         <v>102</v>
       </c>
-      <c r="AH17" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>102</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>105</v>
-      </c>
       <c r="AO17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AP17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AQ17" t="s">
-        <v>105</v>
-      </c>
-      <c r="AR17" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>105</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>105</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>105</v>
+      </c>
+      <c r="BL17" t="s">
+        <v>102</v>
+      </c>
+      <c r="BQ17" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>69</v>
       </c>
@@ -2671,41 +3181,41 @@
       <c r="Y18" t="s">
         <v>102</v>
       </c>
-      <c r="Z18" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>105</v>
+      <c r="AA18" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="AG18" t="s">
         <v>102</v>
       </c>
-      <c r="AH18" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>105</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>102</v>
-      </c>
       <c r="AO18" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AP18" t="s">
         <v>102</v>
       </c>
       <c r="AQ18" t="s">
-        <v>105</v>
-      </c>
-      <c r="AR18" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>102</v>
+      </c>
+      <c r="BL18" t="s">
+        <v>105</v>
+      </c>
+      <c r="BQ18" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>69</v>
       </c>
@@ -2760,41 +3270,41 @@
       <c r="Y19" t="s">
         <v>105</v>
       </c>
-      <c r="Z19" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>105</v>
+      <c r="AA19" t="s">
+        <v>102</v>
       </c>
       <c r="AG19" t="s">
         <v>102</v>
       </c>
-      <c r="AH19" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>102</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>105</v>
-      </c>
       <c r="AO19" t="s">
         <v>105</v>
       </c>
       <c r="AP19" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AQ19" t="s">
-        <v>105</v>
-      </c>
-      <c r="AR19" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>105</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>105</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>105</v>
+      </c>
+      <c r="BL19" t="s">
+        <v>102</v>
+      </c>
+      <c r="BQ19" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>69</v>
       </c>
@@ -2849,41 +3359,41 @@
       <c r="Y20" t="s">
         <v>105</v>
       </c>
-      <c r="Z20" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>105</v>
+      <c r="AA20" t="s">
+        <v>102</v>
       </c>
       <c r="AG20" t="s">
         <v>102</v>
       </c>
-      <c r="AH20" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>105</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>105</v>
-      </c>
       <c r="AO20" t="s">
         <v>105</v>
       </c>
       <c r="AP20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AQ20" t="s">
         <v>102</v>
       </c>
-      <c r="AR20" t="s">
+      <c r="AT20" t="s">
+        <v>102</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>105</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>105</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>105</v>
+      </c>
+      <c r="BL20" t="s">
+        <v>105</v>
+      </c>
+      <c r="BQ20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>69</v>
       </c>
@@ -2938,41 +3448,41 @@
       <c r="Y21" t="s">
         <v>105</v>
       </c>
-      <c r="Z21" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF21" t="s">
+      <c r="AA21" s="5" t="s">
         <v>102</v>
       </c>
       <c r="AG21" t="s">
         <v>102</v>
       </c>
-      <c r="AH21" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>105</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>102</v>
-      </c>
       <c r="AO21" t="s">
         <v>102</v>
       </c>
       <c r="AP21" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AQ21" t="s">
         <v>102</v>
       </c>
-      <c r="AR21" t="s">
+      <c r="AT21" t="s">
+        <v>102</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>105</v>
+      </c>
+      <c r="BL21" t="s">
+        <v>105</v>
+      </c>
+      <c r="BQ21" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>69</v>
       </c>
@@ -3027,41 +3537,41 @@
       <c r="Y22" t="s">
         <v>105</v>
       </c>
-      <c r="Z22" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>102</v>
+      <c r="AA22" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="AG22" t="s">
         <v>102</v>
       </c>
-      <c r="AH22" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM22" t="s">
-        <v>105</v>
-      </c>
-      <c r="AN22" t="s">
-        <v>105</v>
-      </c>
       <c r="AO22" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AP22" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AQ22" t="s">
-        <v>105</v>
-      </c>
-      <c r="AR22" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB22" t="s">
+        <v>105</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>105</v>
+      </c>
+      <c r="BF22" t="s">
+        <v>105</v>
+      </c>
+      <c r="BL22" t="s">
+        <v>105</v>
+      </c>
+      <c r="BQ22" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>69</v>
       </c>
@@ -3116,26 +3626,11 @@
       <c r="Y23" t="s">
         <v>102</v>
       </c>
-      <c r="Z23" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>102</v>
+      <c r="AA23" t="s">
+        <v>48</v>
       </c>
       <c r="AG23" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM23" t="s">
-        <v>102</v>
-      </c>
-      <c r="AN23" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="AO23" t="s">
         <v>102</v>
@@ -3146,11 +3641,26 @@
       <c r="AQ23" t="s">
         <v>102</v>
       </c>
-      <c r="AR23" t="s">
+      <c r="AT23" t="s">
+        <v>102</v>
+      </c>
+      <c r="BB23" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC23" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF23" t="s">
+        <v>102</v>
+      </c>
+      <c r="BL23" t="s">
+        <v>102</v>
+      </c>
+      <c r="BQ23" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>69</v>
       </c>
@@ -3205,26 +3715,11 @@
       <c r="Y24" t="s">
         <v>102</v>
       </c>
-      <c r="Z24" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>102</v>
+      <c r="AA24" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="AG24" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM24" t="s">
-        <v>102</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="AO24" t="s">
         <v>102</v>
@@ -3233,13 +3728,28 @@
         <v>102</v>
       </c>
       <c r="AQ24" t="s">
-        <v>105</v>
-      </c>
-      <c r="AR24" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB24" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC24" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF24" t="s">
+        <v>102</v>
+      </c>
+      <c r="BL24" t="s">
+        <v>102</v>
+      </c>
+      <c r="BQ24" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>69</v>
       </c>
@@ -3297,41 +3807,41 @@
       <c r="Y25" t="s">
         <v>48</v>
       </c>
-      <c r="Z25" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>105</v>
+      <c r="AA25" t="s">
+        <v>48</v>
       </c>
       <c r="AG25" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM25" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN25" t="s">
         <v>48</v>
       </c>
       <c r="AO25" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="AP25" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="AQ25" t="s">
-        <v>48</v>
-      </c>
-      <c r="AR25" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>48</v>
+      </c>
+      <c r="BB25" t="s">
+        <v>48</v>
+      </c>
+      <c r="BC25" t="s">
+        <v>48</v>
+      </c>
+      <c r="BF25" t="s">
+        <v>48</v>
+      </c>
+      <c r="BL25" t="s">
+        <v>48</v>
+      </c>
+      <c r="BQ25" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>69</v>
       </c>
@@ -3386,41 +3896,41 @@
       <c r="Y26" t="s">
         <v>102</v>
       </c>
-      <c r="Z26" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF26" t="s">
-        <v>105</v>
+      <c r="AA26" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="AG26" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM26" t="s">
-        <v>102</v>
-      </c>
-      <c r="AN26" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="AO26" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AP26" t="s">
         <v>102</v>
       </c>
       <c r="AQ26" t="s">
-        <v>105</v>
-      </c>
-      <c r="AR26" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB26" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC26" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF26" t="s">
+        <v>102</v>
+      </c>
+      <c r="BL26" t="s">
+        <v>102</v>
+      </c>
+      <c r="BQ26" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>69</v>
       </c>
@@ -3475,29 +3985,14 @@
       <c r="Y27" t="s">
         <v>102</v>
       </c>
-      <c r="Z27" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>105</v>
-      </c>
-      <c r="AF27" t="s">
-        <v>105</v>
+      <c r="AA27" t="s">
+        <v>102</v>
       </c>
       <c r="AG27" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM27" t="s">
-        <v>102</v>
-      </c>
-      <c r="AN27" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AO27" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AP27" t="s">
         <v>102</v>
@@ -3505,11 +4000,26 @@
       <c r="AQ27" t="s">
         <v>102</v>
       </c>
-      <c r="AR27" t="s">
+      <c r="AT27" t="s">
+        <v>102</v>
+      </c>
+      <c r="BB27" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC27" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF27" t="s">
+        <v>102</v>
+      </c>
+      <c r="BL27" t="s">
+        <v>102</v>
+      </c>
+      <c r="BQ27" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>69</v>
       </c>
@@ -3564,133 +4074,133 @@
       <c r="Y28" t="s">
         <v>48</v>
       </c>
-      <c r="Z28" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF28" t="s">
-        <v>105</v>
+      <c r="AA28" t="s">
+        <v>48</v>
       </c>
       <c r="AG28" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM28" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN28" t="s">
         <v>48</v>
       </c>
       <c r="AO28" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="AP28" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="AQ28" t="s">
-        <v>48</v>
-      </c>
-      <c r="AR28" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>48</v>
+      </c>
+      <c r="BB28" t="s">
+        <v>48</v>
+      </c>
+      <c r="BC28" t="s">
+        <v>48</v>
+      </c>
+      <c r="BF28" t="s">
+        <v>48</v>
+      </c>
+      <c r="BL28" t="s">
+        <v>48</v>
+      </c>
+      <c r="BQ28" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:47" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" t="s">
         <v>97</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" t="s">
         <v>40</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" t="s">
         <v>41</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G29" t="s">
         <v>42</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" t="s">
         <v>43</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="I29" t="s">
         <v>44</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="J29" t="s">
         <v>116</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L29" s="7" t="s">
+      <c r="K29" t="s">
+        <v>48</v>
+      </c>
+      <c r="L29" t="s">
         <v>117</v>
       </c>
-      <c r="M29" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="N29" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P29" s="7" t="s">
+      <c r="M29" t="s">
+        <v>48</v>
+      </c>
+      <c r="N29" t="s">
+        <v>48</v>
+      </c>
+      <c r="P29" t="s">
         <v>99</v>
       </c>
-      <c r="Q29" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="S29" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="V29" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="W29" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y29" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z29" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB29" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="AF29" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="AG29" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH29" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM29" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="AN29" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="AO29" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="AP29" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="AQ29" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="AR29" s="7" t="s">
+      <c r="Q29" t="s">
+        <v>48</v>
+      </c>
+      <c r="S29" t="s">
+        <v>105</v>
+      </c>
+      <c r="V29" t="s">
+        <v>48</v>
+      </c>
+      <c r="W29" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>105</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>105</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT29" t="s">
+        <v>102</v>
+      </c>
+      <c r="BB29" t="s">
+        <v>105</v>
+      </c>
+      <c r="BC29" t="s">
+        <v>105</v>
+      </c>
+      <c r="BF29" t="s">
+        <v>105</v>
+      </c>
+      <c r="BL29" t="s">
+        <v>102</v>
+      </c>
+      <c r="BQ29" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:72" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>118</v>
       </c>
@@ -3754,34 +4264,16 @@
       <c r="Y30" t="s">
         <v>102</v>
       </c>
-      <c r="Z30" t="s">
-        <v>105</v>
-      </c>
       <c r="AA30" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AB30" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF30" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI30" t="s">
-        <v>102</v>
+        <v>102</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>105</v>
       </c>
       <c r="AJ30" t="s">
-        <v>105</v>
-      </c>
-      <c r="AK30" t="s">
         <v>102</v>
       </c>
       <c r="AL30" t="s">
@@ -3790,29 +4282,47 @@
       <c r="AM30" t="s">
         <v>102</v>
       </c>
-      <c r="AN30" t="s">
-        <v>102</v>
-      </c>
       <c r="AO30" t="s">
         <v>102</v>
       </c>
-      <c r="AP30" t="s">
-        <v>105</v>
-      </c>
-      <c r="AQ30" t="s">
-        <v>105</v>
-      </c>
       <c r="AS30" t="s">
         <v>102</v>
       </c>
       <c r="AT30" t="s">
-        <v>102</v>
-      </c>
-      <c r="AU30" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ30" t="s">
+        <v>102</v>
+      </c>
+      <c r="BA30" t="s">
+        <v>102</v>
+      </c>
+      <c r="BB30" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC30" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF30" t="s">
+        <v>105</v>
+      </c>
+      <c r="BL30" t="s">
+        <v>102</v>
+      </c>
+      <c r="BM30" t="s">
+        <v>105</v>
+      </c>
+      <c r="BR30" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS30" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT30" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:72" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>118</v>
       </c>
@@ -3873,65 +4383,65 @@
       <c r="Y31" t="s">
         <v>102</v>
       </c>
-      <c r="Z31" t="s">
-        <v>102</v>
-      </c>
       <c r="AA31" t="s">
         <v>102</v>
       </c>
       <c r="AB31" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF31" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI31" t="s">
-        <v>102</v>
+        <v>102</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>48</v>
       </c>
       <c r="AJ31" t="s">
         <v>102</v>
       </c>
-      <c r="AK31" t="s">
-        <v>102</v>
-      </c>
       <c r="AL31" t="s">
         <v>102</v>
       </c>
       <c r="AM31" t="s">
-        <v>102</v>
-      </c>
-      <c r="AN31" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="AO31" t="s">
         <v>102</v>
       </c>
-      <c r="AP31" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ31" t="s">
-        <v>102</v>
-      </c>
       <c r="AS31" t="s">
         <v>102</v>
       </c>
       <c r="AT31" t="s">
         <v>102</v>
       </c>
-      <c r="AU31" t="s">
+      <c r="AZ31" t="s">
+        <v>102</v>
+      </c>
+      <c r="BA31" t="s">
+        <v>102</v>
+      </c>
+      <c r="BB31" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC31" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF31" t="s">
+        <v>102</v>
+      </c>
+      <c r="BL31" t="s">
+        <v>102</v>
+      </c>
+      <c r="BM31" t="s">
+        <v>102</v>
+      </c>
+      <c r="BR31" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS31" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT31" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:72" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>118</v>
       </c>
@@ -3995,65 +4505,65 @@
       <c r="Y32" t="s">
         <v>102</v>
       </c>
-      <c r="Z32" t="s">
-        <v>102</v>
-      </c>
       <c r="AA32" t="s">
         <v>102</v>
       </c>
       <c r="AB32" t="s">
         <v>102</v>
       </c>
-      <c r="AC32" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>105</v>
-      </c>
-      <c r="AI32" t="s">
+      <c r="AG32" t="s">
         <v>102</v>
       </c>
       <c r="AJ32" t="s">
         <v>102</v>
       </c>
-      <c r="AK32" t="s">
-        <v>102</v>
-      </c>
       <c r="AL32" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="AM32" t="s">
-        <v>105</v>
-      </c>
-      <c r="AN32" t="s">
         <v>102</v>
       </c>
       <c r="AO32" t="s">
-        <v>102</v>
-      </c>
-      <c r="AP32" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ32" t="s">
         <v>105</v>
       </c>
       <c r="AS32" t="s">
         <v>102</v>
       </c>
       <c r="AT32" t="s">
-        <v>102</v>
-      </c>
-      <c r="AU32" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>102</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>48</v>
+      </c>
+      <c r="BB32" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>102</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>105</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>102</v>
+      </c>
+      <c r="BR32" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS32" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT32" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:72" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>118</v>
       </c>
@@ -4114,65 +4624,65 @@
       <c r="Y33" t="s">
         <v>102</v>
       </c>
-      <c r="Z33" t="s">
-        <v>102</v>
-      </c>
       <c r="AA33" t="s">
         <v>102</v>
       </c>
       <c r="AB33" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI33" t="s">
-        <v>102</v>
+        <v>102</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>48</v>
       </c>
       <c r="AJ33" t="s">
         <v>102</v>
       </c>
-      <c r="AK33" t="s">
-        <v>102</v>
-      </c>
       <c r="AL33" t="s">
         <v>102</v>
       </c>
       <c r="AM33" t="s">
-        <v>102</v>
-      </c>
-      <c r="AN33" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="AO33" t="s">
         <v>102</v>
       </c>
-      <c r="AP33" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ33" t="s">
-        <v>102</v>
-      </c>
       <c r="AS33" t="s">
         <v>102</v>
       </c>
       <c r="AT33" t="s">
         <v>102</v>
       </c>
-      <c r="AU33" t="s">
+      <c r="AZ33" t="s">
+        <v>102</v>
+      </c>
+      <c r="BA33" t="s">
+        <v>102</v>
+      </c>
+      <c r="BB33" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC33" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF33" t="s">
+        <v>102</v>
+      </c>
+      <c r="BL33" t="s">
+        <v>102</v>
+      </c>
+      <c r="BM33" t="s">
+        <v>102</v>
+      </c>
+      <c r="BR33" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS33" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT33" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:72" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>118</v>
       </c>
@@ -4233,53 +4743,26 @@
       <c r="Y34" t="s">
         <v>102</v>
       </c>
-      <c r="Z34" t="s">
-        <v>102</v>
-      </c>
       <c r="AA34" t="s">
         <v>102</v>
       </c>
       <c r="AB34" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>105</v>
-      </c>
-      <c r="AI34" t="s">
-        <v>102</v>
+        <v>102</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>48</v>
       </c>
       <c r="AJ34" t="s">
         <v>102</v>
       </c>
-      <c r="AK34" t="s">
-        <v>102</v>
-      </c>
       <c r="AL34" t="s">
         <v>102</v>
       </c>
       <c r="AM34" t="s">
-        <v>105</v>
-      </c>
-      <c r="AN34" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="AO34" t="s">
-        <v>102</v>
-      </c>
-      <c r="AP34" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ34" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AS34" t="s">
         <v>102</v>
@@ -4287,11 +4770,38 @@
       <c r="AT34" t="s">
         <v>102</v>
       </c>
-      <c r="AU34" t="s">
+      <c r="AZ34" t="s">
+        <v>102</v>
+      </c>
+      <c r="BA34" t="s">
+        <v>102</v>
+      </c>
+      <c r="BB34" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC34" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF34" t="s">
+        <v>102</v>
+      </c>
+      <c r="BL34" t="s">
+        <v>105</v>
+      </c>
+      <c r="BM34" t="s">
+        <v>102</v>
+      </c>
+      <c r="BR34" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS34" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT34" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:72" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>118</v>
       </c>
@@ -4355,53 +4865,26 @@
       <c r="Y35" t="s">
         <v>105</v>
       </c>
-      <c r="Z35" t="s">
-        <v>102</v>
-      </c>
       <c r="AA35" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AB35" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD35" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF35" t="s">
-        <v>105</v>
-      </c>
-      <c r="AI35" t="s">
-        <v>102</v>
+        <v>105</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>48</v>
       </c>
       <c r="AJ35" t="s">
-        <v>105</v>
-      </c>
-      <c r="AK35" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AL35" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="AM35" t="s">
         <v>48</v>
       </c>
-      <c r="AN35" t="s">
-        <v>102</v>
-      </c>
       <c r="AO35" t="s">
-        <v>102</v>
-      </c>
-      <c r="AP35" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ35" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AS35" t="s">
         <v>102</v>
@@ -4409,11 +4892,38 @@
       <c r="AT35" t="s">
         <v>102</v>
       </c>
-      <c r="AU35" t="s">
+      <c r="AZ35" t="s">
+        <v>105</v>
+      </c>
+      <c r="BA35" t="s">
+        <v>48</v>
+      </c>
+      <c r="BB35" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC35" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF35" t="s">
+        <v>102</v>
+      </c>
+      <c r="BL35" t="s">
+        <v>48</v>
+      </c>
+      <c r="BM35" t="s">
+        <v>105</v>
+      </c>
+      <c r="BR35" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS35" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT35" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:72" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>118</v>
       </c>
@@ -4474,65 +4984,65 @@
       <c r="Y36" t="s">
         <v>105</v>
       </c>
-      <c r="Z36" t="s">
-        <v>105</v>
-      </c>
       <c r="AA36" t="s">
         <v>105</v>
       </c>
       <c r="AB36" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF36" t="s">
-        <v>105</v>
-      </c>
-      <c r="AI36" t="s">
-        <v>102</v>
+        <v>105</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>48</v>
       </c>
       <c r="AJ36" t="s">
         <v>102</v>
       </c>
-      <c r="AK36" t="s">
-        <v>102</v>
-      </c>
       <c r="AL36" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AM36" t="s">
-        <v>102</v>
-      </c>
-      <c r="AN36" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="AO36" t="s">
         <v>105</v>
       </c>
-      <c r="AP36" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ36" t="s">
-        <v>105</v>
-      </c>
       <c r="AS36" t="s">
         <v>102</v>
       </c>
       <c r="AT36" t="s">
-        <v>102</v>
-      </c>
-      <c r="AU36" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ36" t="s">
+        <v>102</v>
+      </c>
+      <c r="BA36" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB36" t="s">
+        <v>105</v>
+      </c>
+      <c r="BC36" t="s">
+        <v>105</v>
+      </c>
+      <c r="BF36" t="s">
+        <v>102</v>
+      </c>
+      <c r="BL36" t="s">
+        <v>102</v>
+      </c>
+      <c r="BM36" t="s">
+        <v>102</v>
+      </c>
+      <c r="BR36" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS36" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT36" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:72" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>118</v>
       </c>
@@ -4593,65 +5103,65 @@
       <c r="Y37" t="s">
         <v>102</v>
       </c>
-      <c r="Z37" t="s">
-        <v>102</v>
-      </c>
       <c r="AA37" t="s">
         <v>102</v>
       </c>
       <c r="AB37" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE37" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF37" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI37" t="s">
-        <v>102</v>
+        <v>102</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>48</v>
       </c>
       <c r="AJ37" t="s">
-        <v>105</v>
-      </c>
-      <c r="AK37" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AL37" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="AM37" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN37" t="s">
         <v>102</v>
       </c>
       <c r="AO37" t="s">
         <v>102</v>
       </c>
-      <c r="AP37" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ37" t="s">
-        <v>105</v>
-      </c>
       <c r="AS37" t="s">
         <v>102</v>
       </c>
       <c r="AT37" t="s">
-        <v>102</v>
-      </c>
-      <c r="AU37" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ37" t="s">
+        <v>105</v>
+      </c>
+      <c r="BA37" t="s">
+        <v>48</v>
+      </c>
+      <c r="BB37" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC37" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF37" t="s">
+        <v>102</v>
+      </c>
+      <c r="BL37" t="s">
+        <v>48</v>
+      </c>
+      <c r="BM37" t="s">
+        <v>105</v>
+      </c>
+      <c r="BR37" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS37" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT37" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:72" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>118</v>
       </c>
@@ -4715,65 +5225,65 @@
       <c r="Y38" t="s">
         <v>102</v>
       </c>
-      <c r="Z38" t="s">
-        <v>105</v>
-      </c>
       <c r="AA38" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AB38" t="s">
         <v>102</v>
       </c>
-      <c r="AC38" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD38" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF38" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI38" t="s">
-        <v>105</v>
+      <c r="AG38" t="s">
+        <v>102</v>
       </c>
       <c r="AJ38" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK38" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="AL38" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AM38" t="s">
-        <v>105</v>
-      </c>
-      <c r="AN38" t="s">
         <v>102</v>
       </c>
       <c r="AO38" t="s">
         <v>102</v>
       </c>
-      <c r="AP38" t="s">
-        <v>48</v>
-      </c>
-      <c r="AQ38" t="s">
-        <v>48</v>
-      </c>
       <c r="AS38" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AT38" t="s">
         <v>48</v>
       </c>
-      <c r="AU38" t="s">
+      <c r="AZ38" t="s">
+        <v>48</v>
+      </c>
+      <c r="BA38" t="s">
+        <v>102</v>
+      </c>
+      <c r="BB38" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC38" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF38" t="s">
+        <v>48</v>
+      </c>
+      <c r="BL38" t="s">
+        <v>105</v>
+      </c>
+      <c r="BM38" t="s">
+        <v>48</v>
+      </c>
+      <c r="BR38" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS38" t="s">
+        <v>48</v>
+      </c>
+      <c r="BT38" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:72" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>118</v>
       </c>
@@ -4834,53 +5344,26 @@
       <c r="Y39" t="s">
         <v>105</v>
       </c>
-      <c r="Z39" t="s">
-        <v>102</v>
-      </c>
       <c r="AA39" t="s">
         <v>102</v>
       </c>
       <c r="AB39" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC39" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD39" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF39" t="s">
-        <v>105</v>
-      </c>
-      <c r="AI39" t="s">
-        <v>102</v>
+        <v>102</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>48</v>
       </c>
       <c r="AJ39" t="s">
-        <v>105</v>
-      </c>
-      <c r="AK39" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AL39" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AM39" t="s">
-        <v>105</v>
-      </c>
-      <c r="AN39" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="AO39" t="s">
-        <v>102</v>
-      </c>
-      <c r="AP39" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ39" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AS39" t="s">
         <v>102</v>
@@ -4888,11 +5371,38 @@
       <c r="AT39" t="s">
         <v>102</v>
       </c>
-      <c r="AU39" t="s">
+      <c r="AZ39" t="s">
+        <v>105</v>
+      </c>
+      <c r="BA39" t="s">
+        <v>102</v>
+      </c>
+      <c r="BB39" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC39" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF39" t="s">
+        <v>102</v>
+      </c>
+      <c r="BL39" t="s">
+        <v>105</v>
+      </c>
+      <c r="BM39" t="s">
+        <v>105</v>
+      </c>
+      <c r="BR39" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS39" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT39" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:72" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>118</v>
       </c>
@@ -4953,65 +5463,65 @@
       <c r="Y40" t="s">
         <v>105</v>
       </c>
-      <c r="Z40" t="s">
-        <v>102</v>
-      </c>
       <c r="AA40" t="s">
         <v>102</v>
       </c>
       <c r="AB40" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC40" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD40" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE40" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF40" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI40" t="s">
-        <v>102</v>
+        <v>102</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>48</v>
       </c>
       <c r="AJ40" t="s">
-        <v>105</v>
-      </c>
-      <c r="AK40" t="s">
         <v>102</v>
       </c>
       <c r="AL40" t="s">
         <v>102</v>
       </c>
       <c r="AM40" t="s">
-        <v>105</v>
-      </c>
-      <c r="AN40" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="AO40" t="s">
         <v>102</v>
       </c>
-      <c r="AP40" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ40" t="s">
-        <v>102</v>
-      </c>
       <c r="AS40" t="s">
         <v>102</v>
       </c>
       <c r="AT40" t="s">
         <v>102</v>
       </c>
-      <c r="AU40" t="s">
+      <c r="AZ40" t="s">
+        <v>102</v>
+      </c>
+      <c r="BA40" t="s">
+        <v>102</v>
+      </c>
+      <c r="BB40" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC40" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF40" t="s">
+        <v>102</v>
+      </c>
+      <c r="BL40" t="s">
+        <v>105</v>
+      </c>
+      <c r="BM40" t="s">
+        <v>105</v>
+      </c>
+      <c r="BR40" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS40" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:72" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>118</v>
       </c>
@@ -5075,65 +5585,65 @@
       <c r="Y41" t="s">
         <v>105</v>
       </c>
-      <c r="Z41" t="s">
-        <v>105</v>
-      </c>
       <c r="AA41" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AB41" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC41" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD41" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE41" t="s">
-        <v>105</v>
-      </c>
-      <c r="AF41" t="s">
-        <v>105</v>
-      </c>
-      <c r="AI41" t="s">
-        <v>48</v>
+        <v>102</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>105</v>
       </c>
       <c r="AJ41" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK41" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="AL41" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AM41" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN41" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AO41" t="s">
-        <v>102</v>
-      </c>
-      <c r="AP41" t="s">
-        <v>48</v>
-      </c>
-      <c r="AQ41" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="AS41" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="AT41" t="s">
         <v>48</v>
       </c>
-      <c r="AU41" t="s">
+      <c r="AZ41" t="s">
+        <v>48</v>
+      </c>
+      <c r="BA41" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB41" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC41" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF41" t="s">
+        <v>48</v>
+      </c>
+      <c r="BL41" t="s">
+        <v>48</v>
+      </c>
+      <c r="BM41" t="s">
+        <v>48</v>
+      </c>
+      <c r="BR41" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS41" t="s">
+        <v>48</v>
+      </c>
+      <c r="BT41" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:72" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>118</v>
       </c>
@@ -5194,65 +5704,65 @@
       <c r="Y42" t="s">
         <v>102</v>
       </c>
-      <c r="Z42" t="s">
-        <v>102</v>
-      </c>
       <c r="AA42" t="s">
         <v>102</v>
       </c>
       <c r="AB42" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC42" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD42" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE42" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF42" t="s">
-        <v>105</v>
-      </c>
-      <c r="AI42" t="s">
-        <v>102</v>
+        <v>102</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>48</v>
       </c>
       <c r="AJ42" t="s">
         <v>102</v>
       </c>
-      <c r="AK42" t="s">
-        <v>102</v>
-      </c>
       <c r="AL42" t="s">
         <v>102</v>
       </c>
       <c r="AM42" t="s">
-        <v>102</v>
-      </c>
-      <c r="AN42" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="AO42" t="s">
-        <v>102</v>
-      </c>
-      <c r="AP42" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ42" t="s">
         <v>105</v>
       </c>
       <c r="AS42" t="s">
         <v>102</v>
       </c>
       <c r="AT42" t="s">
-        <v>102</v>
-      </c>
-      <c r="AU42" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ42" t="s">
+        <v>102</v>
+      </c>
+      <c r="BA42" t="s">
+        <v>102</v>
+      </c>
+      <c r="BB42" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC42" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF42" t="s">
+        <v>102</v>
+      </c>
+      <c r="BL42" t="s">
+        <v>102</v>
+      </c>
+      <c r="BM42" t="s">
+        <v>102</v>
+      </c>
+      <c r="BR42" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS42" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT42" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:72" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>118</v>
       </c>
@@ -5316,65 +5826,65 @@
       <c r="Y43" t="s">
         <v>102</v>
       </c>
-      <c r="Z43" t="s">
-        <v>105</v>
-      </c>
       <c r="AA43" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AB43" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC43" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD43" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE43" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF43" t="s">
-        <v>105</v>
-      </c>
-      <c r="AI43" t="s">
-        <v>102</v>
+        <v>102</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>48</v>
       </c>
       <c r="AJ43" t="s">
         <v>102</v>
       </c>
-      <c r="AK43" t="s">
-        <v>102</v>
-      </c>
       <c r="AL43" t="s">
         <v>102</v>
       </c>
       <c r="AM43" t="s">
-        <v>102</v>
-      </c>
-      <c r="AN43" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="AO43" t="s">
-        <v>102</v>
-      </c>
-      <c r="AP43" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ43" t="s">
         <v>105</v>
       </c>
       <c r="AS43" t="s">
         <v>102</v>
       </c>
       <c r="AT43" t="s">
-        <v>102</v>
-      </c>
-      <c r="AU43" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ43" t="s">
+        <v>102</v>
+      </c>
+      <c r="BA43" t="s">
+        <v>102</v>
+      </c>
+      <c r="BB43" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC43" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF43" t="s">
+        <v>102</v>
+      </c>
+      <c r="BL43" t="s">
+        <v>102</v>
+      </c>
+      <c r="BM43" t="s">
+        <v>102</v>
+      </c>
+      <c r="BR43" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS43" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT43" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="44" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:72" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>118</v>
       </c>
@@ -5438,53 +5948,26 @@
       <c r="Y44" t="s">
         <v>105</v>
       </c>
-      <c r="Z44" t="s">
-        <v>102</v>
-      </c>
       <c r="AA44" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AB44" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC44" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD44" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE44" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF44" t="s">
-        <v>105</v>
-      </c>
-      <c r="AI44" t="s">
-        <v>102</v>
+        <v>105</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>48</v>
       </c>
       <c r="AJ44" t="s">
         <v>105</v>
       </c>
-      <c r="AK44" t="s">
-        <v>105</v>
-      </c>
       <c r="AL44" t="s">
         <v>102</v>
       </c>
       <c r="AM44" t="s">
         <v>102</v>
       </c>
-      <c r="AN44" t="s">
-        <v>102</v>
-      </c>
       <c r="AO44" t="s">
-        <v>102</v>
-      </c>
-      <c r="AP44" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ44" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AS44" t="s">
         <v>102</v>
@@ -5492,11 +5975,38 @@
       <c r="AT44" t="s">
         <v>102</v>
       </c>
-      <c r="AU44" t="s">
+      <c r="AZ44" t="s">
+        <v>105</v>
+      </c>
+      <c r="BA44" t="s">
+        <v>102</v>
+      </c>
+      <c r="BB44" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC44" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF44" t="s">
+        <v>102</v>
+      </c>
+      <c r="BL44" t="s">
+        <v>102</v>
+      </c>
+      <c r="BM44" t="s">
+        <v>105</v>
+      </c>
+      <c r="BR44" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS44" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT44" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:72" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>118</v>
       </c>
@@ -5557,65 +6067,65 @@
       <c r="Y45" t="s">
         <v>105</v>
       </c>
-      <c r="Z45" t="s">
-        <v>105</v>
-      </c>
       <c r="AA45" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AB45" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC45" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD45" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE45" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF45" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI45" t="s">
-        <v>105</v>
+        <v>102</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>48</v>
       </c>
       <c r="AJ45" t="s">
         <v>102</v>
       </c>
-      <c r="AK45" t="s">
-        <v>105</v>
-      </c>
       <c r="AL45" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AM45" t="s">
         <v>48</v>
       </c>
-      <c r="AN45" t="s">
-        <v>102</v>
-      </c>
       <c r="AO45" t="s">
         <v>102</v>
       </c>
-      <c r="AP45" t="s">
-        <v>105</v>
-      </c>
-      <c r="AQ45" t="s">
-        <v>102</v>
-      </c>
       <c r="AS45" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AT45" t="s">
-        <v>105</v>
-      </c>
-      <c r="AU45" t="s">
+        <v>102</v>
+      </c>
+      <c r="AZ45" t="s">
+        <v>105</v>
+      </c>
+      <c r="BA45" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB45" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC45" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF45" t="s">
+        <v>105</v>
+      </c>
+      <c r="BL45" t="s">
+        <v>48</v>
+      </c>
+      <c r="BM45" t="s">
+        <v>102</v>
+      </c>
+      <c r="BR45" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS45" t="s">
+        <v>105</v>
+      </c>
+      <c r="BT45" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:72" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>118</v>
       </c>
@@ -5676,65 +6186,65 @@
       <c r="Y46" t="s">
         <v>105</v>
       </c>
-      <c r="Z46" t="s">
-        <v>105</v>
-      </c>
       <c r="AA46" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AB46" t="s">
         <v>102</v>
       </c>
-      <c r="AC46" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD46" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE46" t="s">
-        <v>105</v>
-      </c>
-      <c r="AF46" t="s">
-        <v>105</v>
-      </c>
-      <c r="AI46" t="s">
+      <c r="AG46" t="s">
         <v>102</v>
       </c>
       <c r="AJ46" t="s">
-        <v>105</v>
-      </c>
-      <c r="AK46" t="s">
         <v>102</v>
       </c>
       <c r="AL46" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AM46" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN46" t="s">
         <v>105</v>
       </c>
       <c r="AO46" t="s">
         <v>105</v>
       </c>
-      <c r="AP46" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ46" t="s">
-        <v>105</v>
-      </c>
       <c r="AS46" t="s">
         <v>102</v>
       </c>
       <c r="AT46" t="s">
-        <v>102</v>
-      </c>
-      <c r="AU46" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ46" t="s">
+        <v>102</v>
+      </c>
+      <c r="BA46" t="s">
+        <v>102</v>
+      </c>
+      <c r="BB46" t="s">
+        <v>105</v>
+      </c>
+      <c r="BC46" t="s">
+        <v>105</v>
+      </c>
+      <c r="BF46" t="s">
+        <v>102</v>
+      </c>
+      <c r="BL46" t="s">
+        <v>48</v>
+      </c>
+      <c r="BM46" t="s">
+        <v>105</v>
+      </c>
+      <c r="BR46" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS46" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT46" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:72" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>118</v>
       </c>
@@ -5795,65 +6305,65 @@
       <c r="Y47" t="s">
         <v>102</v>
       </c>
-      <c r="Z47" t="s">
-        <v>105</v>
-      </c>
       <c r="AA47" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AB47" t="s">
         <v>102</v>
       </c>
-      <c r="AC47" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD47" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE47" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF47" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI47" t="s">
-        <v>105</v>
+      <c r="AG47" t="s">
+        <v>102</v>
       </c>
       <c r="AJ47" t="s">
-        <v>105</v>
-      </c>
-      <c r="AK47" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AL47" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AM47" t="s">
         <v>102</v>
       </c>
-      <c r="AN47" t="s">
-        <v>102</v>
-      </c>
       <c r="AO47" t="s">
         <v>102</v>
       </c>
-      <c r="AP47" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ47" t="s">
-        <v>105</v>
-      </c>
       <c r="AS47" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AT47" t="s">
-        <v>102</v>
-      </c>
-      <c r="AU47" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ47" t="s">
+        <v>105</v>
+      </c>
+      <c r="BA47" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB47" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC47" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF47" t="s">
+        <v>102</v>
+      </c>
+      <c r="BL47" t="s">
+        <v>102</v>
+      </c>
+      <c r="BM47" t="s">
+        <v>105</v>
+      </c>
+      <c r="BR47" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS47" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT47" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:72" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>118</v>
       </c>
@@ -5914,65 +6424,65 @@
       <c r="Y48" t="s">
         <v>105</v>
       </c>
-      <c r="Z48" t="s">
-        <v>105</v>
-      </c>
       <c r="AA48" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AB48" t="s">
         <v>102</v>
       </c>
-      <c r="AC48" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD48" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE48" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF48" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI48" t="s">
+      <c r="AG48" t="s">
         <v>102</v>
       </c>
       <c r="AJ48" t="s">
-        <v>105</v>
-      </c>
-      <c r="AK48" t="s">
         <v>102</v>
       </c>
       <c r="AL48" t="s">
         <v>102</v>
       </c>
       <c r="AM48" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN48" t="s">
         <v>102</v>
       </c>
       <c r="AO48" t="s">
         <v>102</v>
       </c>
-      <c r="AP48" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ48" t="s">
-        <v>105</v>
-      </c>
       <c r="AS48" t="s">
         <v>102</v>
       </c>
       <c r="AT48" t="s">
-        <v>102</v>
-      </c>
-      <c r="AU48" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ48" t="s">
+        <v>102</v>
+      </c>
+      <c r="BA48" t="s">
+        <v>102</v>
+      </c>
+      <c r="BB48" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC48" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF48" t="s">
+        <v>102</v>
+      </c>
+      <c r="BL48" t="s">
+        <v>48</v>
+      </c>
+      <c r="BM48" t="s">
+        <v>105</v>
+      </c>
+      <c r="BR48" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS48" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT48" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="49" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:79" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>118</v>
       </c>
@@ -6033,65 +6543,65 @@
       <c r="Y49" t="s">
         <v>105</v>
       </c>
-      <c r="Z49" t="s">
-        <v>48</v>
-      </c>
       <c r="AA49" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="AB49" t="s">
         <v>102</v>
       </c>
-      <c r="AC49" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD49" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE49" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF49" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI49" t="s">
-        <v>105</v>
+      <c r="AG49" t="s">
+        <v>102</v>
       </c>
       <c r="AJ49" t="s">
-        <v>105</v>
-      </c>
-      <c r="AK49" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AL49" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="AM49" t="s">
         <v>102</v>
       </c>
-      <c r="AN49" t="s">
-        <v>48</v>
-      </c>
       <c r="AO49" t="s">
-        <v>48</v>
-      </c>
-      <c r="AP49" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ49" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AS49" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AT49" t="s">
-        <v>102</v>
-      </c>
-      <c r="AU49" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ49" t="s">
+        <v>105</v>
+      </c>
+      <c r="BA49" t="s">
+        <v>48</v>
+      </c>
+      <c r="BB49" t="s">
+        <v>48</v>
+      </c>
+      <c r="BC49" t="s">
+        <v>48</v>
+      </c>
+      <c r="BF49" t="s">
+        <v>102</v>
+      </c>
+      <c r="BL49" t="s">
+        <v>102</v>
+      </c>
+      <c r="BM49" t="s">
+        <v>105</v>
+      </c>
+      <c r="BR49" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS49" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:79" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>118</v>
       </c>
@@ -6152,65 +6662,65 @@
       <c r="Y50" t="s">
         <v>102</v>
       </c>
-      <c r="Z50" t="s">
-        <v>48</v>
-      </c>
       <c r="AA50" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="AB50" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC50" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD50" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE50" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF50" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI50" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG50" t="s">
         <v>48</v>
       </c>
       <c r="AJ50" t="s">
-        <v>105</v>
-      </c>
-      <c r="AK50" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="AL50" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="AM50" t="s">
-        <v>102</v>
-      </c>
-      <c r="AN50" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="AO50" t="s">
         <v>102</v>
       </c>
-      <c r="AP50" t="s">
-        <v>48</v>
-      </c>
-      <c r="AQ50" t="s">
-        <v>48</v>
-      </c>
       <c r="AS50" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="AT50" t="s">
-        <v>102</v>
-      </c>
-      <c r="AU50" t="s">
+        <v>48</v>
+      </c>
+      <c r="AZ50" t="s">
+        <v>48</v>
+      </c>
+      <c r="BA50" t="s">
+        <v>48</v>
+      </c>
+      <c r="BB50" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC50" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF50" t="s">
+        <v>48</v>
+      </c>
+      <c r="BL50" t="s">
+        <v>102</v>
+      </c>
+      <c r="BM50" t="s">
+        <v>105</v>
+      </c>
+      <c r="BR50" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS50" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT50" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:79" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>118</v>
       </c>
@@ -6274,61 +6784,1759 @@
       <c r="Y51" t="s">
         <v>105</v>
       </c>
-      <c r="Z51" t="s">
-        <v>102</v>
-      </c>
       <c r="AA51" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AB51" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC51" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD51" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE51" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF51" t="s">
-        <v>105</v>
-      </c>
-      <c r="AI51" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG51" t="s">
         <v>102</v>
       </c>
       <c r="AJ51" t="s">
-        <v>105</v>
-      </c>
-      <c r="AK51" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AL51" t="s">
         <v>102</v>
       </c>
       <c r="AM51" t="s">
-        <v>105</v>
-      </c>
-      <c r="AN51" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AO51" t="s">
         <v>105</v>
       </c>
-      <c r="AP51" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ51" t="s">
-        <v>105</v>
-      </c>
       <c r="AS51" t="s">
         <v>102</v>
       </c>
       <c r="AT51" t="s">
-        <v>102</v>
-      </c>
-      <c r="AU51" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ51" t="s">
+        <v>105</v>
+      </c>
+      <c r="BA51" t="s">
+        <v>102</v>
+      </c>
+      <c r="BB51" t="s">
+        <v>105</v>
+      </c>
+      <c r="BC51" t="s">
+        <v>105</v>
+      </c>
+      <c r="BF51" t="s">
+        <v>102</v>
+      </c>
+      <c r="BL51" t="s">
+        <v>105</v>
+      </c>
+      <c r="BM51" t="s">
+        <v>105</v>
+      </c>
+      <c r="BR51" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS51" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:79" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>186</v>
+      </c>
+      <c r="B52" t="s">
+        <v>187</v>
+      </c>
+      <c r="C52" t="s">
+        <v>188</v>
+      </c>
+      <c r="E52" t="s">
+        <v>40</v>
+      </c>
+      <c r="F52" t="s">
+        <v>41</v>
+      </c>
+      <c r="G52" t="s">
+        <v>42</v>
+      </c>
+      <c r="H52" t="s">
+        <v>43</v>
+      </c>
+      <c r="I52" t="s">
+        <v>44</v>
+      </c>
+      <c r="J52" t="s">
+        <v>206</v>
+      </c>
+      <c r="K52" t="s">
+        <v>48</v>
+      </c>
+      <c r="L52" t="s">
+        <v>210</v>
+      </c>
+      <c r="M52" t="s">
+        <v>48</v>
+      </c>
+      <c r="N52" t="s">
+        <v>197</v>
+      </c>
+      <c r="O52" t="s">
+        <v>205</v>
+      </c>
+      <c r="P52" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>48</v>
+      </c>
+      <c r="R52" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="S52" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y52" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z52" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA52" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB52" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC52" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD52" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE52" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF52" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG52" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH52" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI52" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK52" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL52" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AN52" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AO52" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AR52" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU52" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AW52" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AX52" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AY52" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ52" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BA52" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB52" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BC52" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BD52" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BE52" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF52" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BH52" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BI52" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BJ52" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="BK52" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BL52" t="s">
+        <v>105</v>
+      </c>
+      <c r="BM52" t="s">
+        <v>102</v>
+      </c>
+      <c r="BN52" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BO52" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BP52" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BQ52" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BR52" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS52" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BU52" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BW52" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="BX52" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="BY52" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BZ52" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="CA52" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:79" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>186</v>
+      </c>
+      <c r="B53" t="s">
+        <v>187</v>
+      </c>
+      <c r="C53" t="s">
+        <v>189</v>
+      </c>
+      <c r="E53" t="s">
+        <v>40</v>
+      </c>
+      <c r="F53" t="s">
+        <v>41</v>
+      </c>
+      <c r="G53" t="s">
+        <v>42</v>
+      </c>
+      <c r="H53" t="s">
+        <v>43</v>
+      </c>
+      <c r="I53" t="s">
+        <v>44</v>
+      </c>
+      <c r="J53" t="s">
+        <v>206</v>
+      </c>
+      <c r="K53" t="s">
+        <v>48</v>
+      </c>
+      <c r="M53" t="s">
+        <v>48</v>
+      </c>
+      <c r="N53" t="s">
+        <v>149</v>
+      </c>
+      <c r="O53" t="s">
+        <v>205</v>
+      </c>
+      <c r="P53" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>48</v>
+      </c>
+      <c r="R53" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="S53" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y53" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z53" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA53" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB53" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC53" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD53" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE53" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF53" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG53" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH53" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI53" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK53" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL53" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AN53" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO53" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR53" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU53" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AW53" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AX53" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AY53" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ53" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BA53" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB53" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC53" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BD53" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BE53" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF53" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BH53" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BI53" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BJ53" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="BK53" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BL53" t="s">
+        <v>102</v>
+      </c>
+      <c r="BM53" t="s">
+        <v>102</v>
+      </c>
+      <c r="BN53" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BO53" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BP53" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BQ53" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BR53" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS53" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BU53" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BW53" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="BX53" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY53" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BZ53" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="CA53" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:79" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>186</v>
+      </c>
+      <c r="B54" t="s">
+        <v>187</v>
+      </c>
+      <c r="C54" t="s">
+        <v>190</v>
+      </c>
+      <c r="E54" t="s">
+        <v>40</v>
+      </c>
+      <c r="F54" t="s">
+        <v>41</v>
+      </c>
+      <c r="G54" t="s">
+        <v>42</v>
+      </c>
+      <c r="H54" t="s">
+        <v>43</v>
+      </c>
+      <c r="I54" t="s">
+        <v>44</v>
+      </c>
+      <c r="J54" t="s">
+        <v>207</v>
+      </c>
+      <c r="K54" t="s">
+        <v>48</v>
+      </c>
+      <c r="M54" t="s">
+        <v>48</v>
+      </c>
+      <c r="N54" t="s">
+        <v>198</v>
+      </c>
+      <c r="O54" t="s">
+        <v>205</v>
+      </c>
+      <c r="P54" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>48</v>
+      </c>
+      <c r="R54" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="S54" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y54" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z54" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA54" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB54" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC54" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD54" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE54" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF54" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG54" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH54" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI54" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK54" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL54" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN54" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO54" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR54" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU54" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AW54" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AX54" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AY54" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AZ54" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="BA54" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB54" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC54" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BD54" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BE54" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF54" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BH54" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BI54" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BJ54" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="BK54" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BL54" t="s">
+        <v>105</v>
+      </c>
+      <c r="BM54" t="s">
+        <v>102</v>
+      </c>
+      <c r="BN54" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BO54" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BP54" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BQ54" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BR54" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS54" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="BU54" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BW54" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX54" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="BY54" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BZ54" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="CA54" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:79" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>186</v>
+      </c>
+      <c r="B55" t="s">
+        <v>187</v>
+      </c>
+      <c r="C55" t="s">
+        <v>191</v>
+      </c>
+      <c r="E55" t="s">
+        <v>40</v>
+      </c>
+      <c r="F55" t="s">
+        <v>41</v>
+      </c>
+      <c r="G55" t="s">
+        <v>42</v>
+      </c>
+      <c r="H55" t="s">
+        <v>43</v>
+      </c>
+      <c r="I55" t="s">
+        <v>44</v>
+      </c>
+      <c r="J55" t="s">
+        <v>207</v>
+      </c>
+      <c r="K55" t="s">
+        <v>48</v>
+      </c>
+      <c r="M55" t="s">
+        <v>48</v>
+      </c>
+      <c r="N55" t="s">
+        <v>199</v>
+      </c>
+      <c r="O55" t="s">
+        <v>205</v>
+      </c>
+      <c r="P55" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>48</v>
+      </c>
+      <c r="R55" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="S55" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y55" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z55" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA55" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB55" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC55" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD55" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE55" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF55" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG55" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH55" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI55" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK55" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL55" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN55" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO55" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AR55" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU55" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AW55" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AX55" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY55" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AZ55" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="BA55" t="s">
+        <v>102</v>
+      </c>
+      <c r="BB55" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC55" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BD55" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BE55" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF55" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BH55" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BI55" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BJ55" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="BK55" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BL55" t="s">
+        <v>105</v>
+      </c>
+      <c r="BM55" t="s">
+        <v>102</v>
+      </c>
+      <c r="BN55" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BO55" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BP55" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BQ55" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BR55" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="BS55" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="BU55" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BW55" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="BX55" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="BY55" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BZ55" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="CA55" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:79" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>186</v>
+      </c>
+      <c r="B56" t="s">
+        <v>187</v>
+      </c>
+      <c r="C56" t="s">
+        <v>192</v>
+      </c>
+      <c r="E56" t="s">
+        <v>40</v>
+      </c>
+      <c r="F56" t="s">
+        <v>41</v>
+      </c>
+      <c r="G56" t="s">
+        <v>42</v>
+      </c>
+      <c r="H56" t="s">
+        <v>43</v>
+      </c>
+      <c r="I56" t="s">
+        <v>44</v>
+      </c>
+      <c r="J56" t="s">
+        <v>207</v>
+      </c>
+      <c r="K56" t="s">
+        <v>48</v>
+      </c>
+      <c r="M56" t="s">
+        <v>48</v>
+      </c>
+      <c r="N56" t="s">
+        <v>200</v>
+      </c>
+      <c r="O56" t="s">
+        <v>205</v>
+      </c>
+      <c r="P56" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>48</v>
+      </c>
+      <c r="R56" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="S56" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y56" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z56" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA56" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB56" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC56" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD56" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE56" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF56" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG56" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH56" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI56" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK56" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL56" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN56" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO56" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR56" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU56" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AW56" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX56" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AY56" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AZ56" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="BA56" t="s">
+        <v>102</v>
+      </c>
+      <c r="BB56" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BC56" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BD56" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BE56" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF56" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BH56" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BI56" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BJ56" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="BK56" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BL56" t="s">
+        <v>102</v>
+      </c>
+      <c r="BM56" t="s">
+        <v>102</v>
+      </c>
+      <c r="BN56" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BO56" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BP56" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BQ56" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BR56" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="BS56" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="BU56" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BW56" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX56" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="BY56" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BZ56" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="CA56" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:79" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>186</v>
+      </c>
+      <c r="B57" t="s">
+        <v>187</v>
+      </c>
+      <c r="C57" t="s">
+        <v>193</v>
+      </c>
+      <c r="E57" t="s">
+        <v>40</v>
+      </c>
+      <c r="F57" t="s">
+        <v>41</v>
+      </c>
+      <c r="G57" t="s">
+        <v>42</v>
+      </c>
+      <c r="H57" t="s">
+        <v>43</v>
+      </c>
+      <c r="I57" t="s">
+        <v>44</v>
+      </c>
+      <c r="J57" t="s">
+        <v>207</v>
+      </c>
+      <c r="K57" t="s">
+        <v>48</v>
+      </c>
+      <c r="M57" t="s">
+        <v>48</v>
+      </c>
+      <c r="N57" t="s">
+        <v>201</v>
+      </c>
+      <c r="O57" t="s">
+        <v>205</v>
+      </c>
+      <c r="P57" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>48</v>
+      </c>
+      <c r="R57" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="S57" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y57" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z57" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA57" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB57" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC57" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD57" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE57" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF57" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG57" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH57" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI57" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK57" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL57" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN57" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO57" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AR57" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU57" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AW57" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX57" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AY57" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AZ57" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="BA57" t="s">
+        <v>102</v>
+      </c>
+      <c r="BB57" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BC57" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BD57" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BE57" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF57" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BH57" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BI57" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BJ57" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="BK57" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BL57" t="s">
+        <v>105</v>
+      </c>
+      <c r="BM57" t="s">
+        <v>102</v>
+      </c>
+      <c r="BN57" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BO57" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BP57" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BQ57" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BR57" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="BS57" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="BU57" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BW57" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX57" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="BY57" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BZ57" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="CA57" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:79" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>186</v>
+      </c>
+      <c r="B58" t="s">
+        <v>187</v>
+      </c>
+      <c r="C58" t="s">
+        <v>194</v>
+      </c>
+      <c r="E58" t="s">
+        <v>40</v>
+      </c>
+      <c r="F58" t="s">
+        <v>41</v>
+      </c>
+      <c r="G58" t="s">
+        <v>42</v>
+      </c>
+      <c r="H58" t="s">
+        <v>43</v>
+      </c>
+      <c r="I58" t="s">
+        <v>44</v>
+      </c>
+      <c r="J58" t="s">
+        <v>208</v>
+      </c>
+      <c r="K58" t="s">
+        <v>48</v>
+      </c>
+      <c r="L58" t="s">
+        <v>211</v>
+      </c>
+      <c r="M58" t="s">
+        <v>48</v>
+      </c>
+      <c r="N58" t="s">
+        <v>202</v>
+      </c>
+      <c r="O58" t="s">
+        <v>205</v>
+      </c>
+      <c r="P58" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>48</v>
+      </c>
+      <c r="R58" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="S58" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y58" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z58" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA58" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB58" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC58" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD58" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE58" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF58" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG58" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH58" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI58" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK58" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL58" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AN58" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO58" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR58" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU58" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AW58" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX58" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AY58" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AZ58" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="BA58" t="s">
+        <v>102</v>
+      </c>
+      <c r="BB58" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC58" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BD58" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BE58" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF58" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BH58" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BI58" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BJ58" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="BK58" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BL58" t="s">
+        <v>102</v>
+      </c>
+      <c r="BM58" t="s">
+        <v>102</v>
+      </c>
+      <c r="BN58" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BO58" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BP58" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BQ58" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BR58" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BS58" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BU58" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BW58" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="BX58" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY58" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BZ58" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="CA58" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:79" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>186</v>
+      </c>
+      <c r="B59" t="s">
+        <v>187</v>
+      </c>
+      <c r="C59" t="s">
+        <v>195</v>
+      </c>
+      <c r="E59" t="s">
+        <v>40</v>
+      </c>
+      <c r="F59" t="s">
+        <v>41</v>
+      </c>
+      <c r="G59" t="s">
+        <v>42</v>
+      </c>
+      <c r="H59" t="s">
+        <v>43</v>
+      </c>
+      <c r="I59" t="s">
+        <v>44</v>
+      </c>
+      <c r="J59" t="s">
+        <v>209</v>
+      </c>
+      <c r="K59" t="s">
+        <v>48</v>
+      </c>
+      <c r="M59" t="s">
+        <v>48</v>
+      </c>
+      <c r="N59" t="s">
+        <v>203</v>
+      </c>
+      <c r="O59" t="s">
+        <v>205</v>
+      </c>
+      <c r="P59" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>48</v>
+      </c>
+      <c r="R59" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="S59" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y59" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z59" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA59" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB59" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC59" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD59" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE59" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF59" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG59" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH59" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI59" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK59" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL59" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AN59" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AO59" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AR59" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU59" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AW59" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AX59" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AY59" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AZ59" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="BA59" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB59" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BC59" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BD59" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BE59" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF59" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BH59" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BI59" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BJ59" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="BK59" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BL59" t="s">
+        <v>102</v>
+      </c>
+      <c r="BM59" t="s">
+        <v>105</v>
+      </c>
+      <c r="BN59" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BO59" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BP59" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BQ59" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BR59" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="BS59" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BU59" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BW59" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="BX59" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="BY59" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BZ59" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="CA59" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:79" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>186</v>
+      </c>
+      <c r="B60" t="s">
+        <v>187</v>
+      </c>
+      <c r="C60" t="s">
+        <v>196</v>
+      </c>
+      <c r="E60" t="s">
+        <v>40</v>
+      </c>
+      <c r="F60" t="s">
+        <v>41</v>
+      </c>
+      <c r="G60" t="s">
+        <v>42</v>
+      </c>
+      <c r="H60" t="s">
+        <v>43</v>
+      </c>
+      <c r="I60" t="s">
+        <v>44</v>
+      </c>
+      <c r="J60" t="s">
+        <v>209</v>
+      </c>
+      <c r="K60" t="s">
+        <v>48</v>
+      </c>
+      <c r="M60" t="s">
+        <v>48</v>
+      </c>
+      <c r="N60" t="s">
+        <v>204</v>
+      </c>
+      <c r="O60" t="s">
+        <v>205</v>
+      </c>
+      <c r="P60" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>48</v>
+      </c>
+      <c r="R60" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="S60" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y60" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z60" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA60" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB60" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC60" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD60" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE60" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF60" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG60" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH60" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI60" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK60" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL60" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AN60" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AO60" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AR60" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU60" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AW60" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AX60" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AY60" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AZ60" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="BA60" t="s">
+        <v>102</v>
+      </c>
+      <c r="BB60" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC60" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BD60" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BE60" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF60" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BH60" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BI60" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BJ60" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="BK60" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BL60" t="s">
+        <v>102</v>
+      </c>
+      <c r="BM60" t="s">
+        <v>105</v>
+      </c>
+      <c r="BN60" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BO60" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BP60" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BQ60" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BR60" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="BS60" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BU60" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BW60" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX60" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="BY60" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BZ60" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="CA60" s="9" t="s">
         <v>102</v>
       </c>
     </row>
